--- a/mf-intelligence/data/processed/invesco/Invesco_India_Smallcap_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/invesco/Invesco_India_Smallcap_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>4.58</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4.87</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.29</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>-0.6200000000000001</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.26</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4.17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>5.08</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>-0.8200000000000003</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>4.25</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4.14</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>2.52</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.1100000000000003</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.73</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4.14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>5.04</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4.07</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.0699999999999994</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.81</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>2.62</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.1899999999999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -678,29 +708,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.65</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>3.65</v>
       </c>
+      <c r="J7" t="n">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2.77</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.4700000000000002</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.17</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>2.61</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>2.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.5699999999999998</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.75</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.45</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>2.9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.2999999999999998</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.1499999999999999</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.7</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.44</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.04</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.2600000000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.6600000000000001</v>
       </c>
     </row>
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.67</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>2.67</v>
       </c>
+      <c r="J12" t="n">
+        <v>2.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.56</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>2.43</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.1400000000000001</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.1299999999999999</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2.37</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>2.55</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.31</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.06000000000000005</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2.19</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.17</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>1.33</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.02000000000000002</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.8599999999999999</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2.18</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.88</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.3000000000000003</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>2.18</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Transport Services</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>2.17</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>2.02</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>2.47</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-0.3000000000000003</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2.03</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.24</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.37</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.2100000000000004</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>-0.3400000000000003</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.99</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>2.13</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>2.38</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.1399999999999999</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.3899999999999999</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.98</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.96</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1.65</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.02000000000000002</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.3300000000000001</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1.95</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.02</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2.28</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-0.07000000000000006</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.3299999999999998</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1.85</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2.2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>2.13</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.3500000000000001</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>-0.2799999999999998</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>1.61</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.56</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1.38</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.2300000000000002</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.6</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.64</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1.51</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.03999999999999981</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.09000000000000008</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1.6</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1.69</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>1.83</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>-0.08999999999999986</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1.59</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.75</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1.93</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-0.1599999999999999</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-0.3399999999999999</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.58</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>1.64</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>1.8</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-0.05999999999999983</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1455,29 +1590,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.56</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1.56</v>
       </c>
+      <c r="J28" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1.54</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.39</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1.46</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>0.1500000000000001</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0.08000000000000007</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.51</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>1.74</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>2.16</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>-0.23</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>-0.6500000000000001</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Paper, Forest &amp; Jute Products</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1.47</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>1.89</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>2.25</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>-0.4199999999999999</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>-0.78</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.39</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>1.3</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>1.37</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0.0199999999999998</v>
       </c>
     </row>
@@ -1640,27 +1800,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>1.28</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>1.35</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1.41</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>-0.07000000000000006</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>-0.1299999999999999</v>
       </c>
     </row>
@@ -1677,27 +1842,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1.22</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>1.23</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>-0.01000000000000001</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>1.22</v>
       </c>
     </row>
@@ -1714,27 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1.21</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>1.28</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1.53</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>-0.07000000000000006</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>-0.3200000000000001</v>
       </c>
     </row>
@@ -1751,27 +1926,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1.15</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>1.04</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1.17</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>0.1099999999999999</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>-0.02000000000000002</v>
       </c>
     </row>
@@ -1788,27 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>1.11</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>1.02</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1.05</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>0.09000000000000008</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>0.06000000000000005</v>
       </c>
     </row>
@@ -1825,27 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>1.09</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>1.31</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1.21</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>-0.22</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>-0.1199999999999999</v>
       </c>
     </row>
@@ -1862,27 +2052,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>1.07</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>1.22</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1.26</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>-0.1499999999999999</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>-0.1899999999999999</v>
       </c>
     </row>
@@ -1899,27 +2094,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>1.05</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>1.07</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>1.17</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>-0.1199999999999999</v>
       </c>
     </row>
@@ -1936,27 +2136,32 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1.05</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>1.25</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1.45</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>-0.2</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>-0.3999999999999999</v>
       </c>
     </row>
@@ -1973,27 +2178,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>1.02</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>0.88</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2010,27 +2220,32 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>1.05</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1.1</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>-0.05000000000000004</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>-0.1000000000000001</v>
       </c>
     </row>
@@ -2047,27 +2262,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>1.01</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>-0.01000000000000001</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2084,27 +2304,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.91</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.97</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>0.92</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>-0.05999999999999994</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>-0.01000000000000001</v>
       </c>
     </row>
@@ -2121,27 +2346,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.9</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.96</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1.12</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>-0.05999999999999994</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>-0.2200000000000001</v>
       </c>
     </row>
@@ -2158,27 +2388,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.88</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.9</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>0.85</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>0.03000000000000003</v>
       </c>
     </row>
@@ -2195,27 +2430,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.88</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.8</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>0.92</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>0.07999999999999996</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>-0.04000000000000004</v>
       </c>
     </row>
@@ -2232,27 +2472,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>0.79</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.89</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>1.05</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>-0.09999999999999998</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2269,27 +2514,32 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>0.75</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.82</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.79</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>-0.06999999999999995</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>-0.04000000000000004</v>
       </c>
     </row>
@@ -2306,27 +2556,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>0.67</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.71</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>0.79</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>-0.03999999999999992</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2343,27 +2598,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>0.67</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>0.76</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>0.93</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>-0.08999999999999997</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2380,27 +2640,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Stable</t>
         </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0.65</v>
       </c>
       <c r="F53" t="n">
         <v>0.65</v>
       </c>
       <c r="G53" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.72</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>-0.06999999999999995</v>
       </c>
     </row>
@@ -2417,27 +2682,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Stable</t>
         </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0.49</v>
       </c>
       <c r="F54" t="n">
         <v>0.49</v>
       </c>
       <c r="G54" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.6</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2454,27 +2724,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.35</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.37</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0.38</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>-0.03000000000000003</v>
       </c>
     </row>
@@ -2491,27 +2766,32 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.35</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.36</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>0.42</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>-0.01000000000000001</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>-0.07000000000000001</v>
       </c>
     </row>
@@ -2528,27 +2808,32 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.34</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.28</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>0.26</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>0.06</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>0.08000000000000002</v>
       </c>
     </row>
@@ -2565,27 +2850,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.32</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.33</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>0.38</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>-0.01000000000000001</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2602,27 +2892,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Cement &amp; Cement Products</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.31</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>0.3</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>0.35</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>-0.03999999999999998</v>
       </c>
     </row>
@@ -2639,27 +2934,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.3</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.29</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>0.37</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>-0.07000000000000001</v>
       </c>
     </row>
@@ -2676,27 +2976,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.28</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.32</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0.35</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>-0.03999999999999998</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>-0.06999999999999995</v>
       </c>
     </row>
@@ -2713,29 +3018,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0.2</v>
       </c>
+      <c r="J62" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2750,29 +3060,34 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.17</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0.17</v>
       </c>
+      <c r="J63" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2787,16 +3102,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Stable</t>
         </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0.01</v>
       </c>
       <c r="F64" t="n">
         <v>0.01</v>
@@ -2805,11 +3122,14 @@
         <v>0.01</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2824,27 +3144,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.01</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.19</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>0.55</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>-0.18</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -2861,27 +3186,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.43</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>-1.43</v>
       </c>
     </row>
@@ -2898,27 +3228,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.54</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>-1.54</v>
       </c>
     </row>
@@ -2935,27 +3270,32 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>3.21</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>2.82</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>-3.21</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>-2.82</v>
       </c>
     </row>
@@ -2972,27 +3312,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.15</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>0.16</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>-0.15</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3009,27 +3354,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>1.16</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>1.33</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>-1.16</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>-1.33</v>
       </c>
     </row>
@@ -3046,27 +3396,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.03</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>0.04</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>-0.03</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3083,29 +3438,34 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.01</v>
       </c>
       <c r="G72" t="n">
         <v>0.01</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="I72" t="n">
         <v>-0.01</v>
       </c>
+      <c r="J72" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3120,27 +3480,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Invesco India Smallcap Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>Invesco India Smallcap Fund</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.24</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>-1.24</v>
       </c>
     </row>
